--- a/testData/database_resource_test_data.xlsx
+++ b/testData/database_resource_test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="add_database_resource" sheetId="5" r:id="rId1"/>
@@ -16,8 +16,8 @@
     <sheet name="add_mysql_account" sheetId="14" r:id="rId7"/>
     <sheet name="del_mysql_account" sheetId="16" r:id="rId8"/>
     <sheet name="bulkdel_database_account" sheetId="22" r:id="rId9"/>
-    <sheet name="del_db2_resorce" sheetId="24" r:id="rId10"/>
-    <sheet name="del_mysql_resource" sheetId="20" r:id="rId11"/>
+    <sheet name="del_mysql_resource" sheetId="20" r:id="rId10"/>
+    <sheet name="del_db2_resorce" sheetId="24" r:id="rId11"/>
     <sheet name="query_database_resource" sheetId="21" r:id="rId12"/>
     <sheet name="bulkdel_resource" sheetId="23" r:id="rId13"/>
   </sheets>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="231">
   <si>
     <t>测试点说明</t>
   </si>
@@ -108,10 +108,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>192.168.23.168</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>fort</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -268,22 +264,10 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>oracle9i</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>172.16.10.223</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>master</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>orcl_10.223</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>添加oracle11g</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -296,10 +280,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>172.16.10.221</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>ORCL</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -340,25 +320,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>172.16.10.226</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>172.16.10.227</t>
-  </si>
-  <si>
-    <t>172.16.10.225</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>orcl_10.222</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>orcl_10.221</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>PLSQL Developer</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -379,9 +340,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>app_server2003</t>
-  </si>
-  <si>
     <t>依附操作系统IP16</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -398,10 +356,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>172.16.10.229</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>DB2控制中心</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -501,10 +455,6 @@
   </si>
   <si>
     <t>【库名】不能为空</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>app_server2003</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -653,18 +603,10 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>172.16.10.222</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>database</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>192.168.23.182</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>MySQL-Front</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -766,10 +708,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>【IP】不能为空</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>Debian</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -790,10 +728,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>资源名称不能大于32</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>IP格式不合法</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -886,10 +820,6 @@
   </si>
   <si>
     <t>oracle</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>172.16.10.222</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -1176,20 +1106,360 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
+    <t>资源名称不能大于64</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>0123456789012345678901234567890123456789012345678901234567890123456789</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.23.4</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>1</t>
     </r>
     <r>
       <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>92.168.23.5</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>92.168.23.8</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>72.16.10.24</t>
-    </r>
+      <t>92.168.23.9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>92.168.23.10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>92.168.23.11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>92.168.23.12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>orcl_10.5</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>orcl_10.6</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>orcl_10.7</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>192.168.23.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>92.168.23.6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.23.6</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>oracle10gResource</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>删除o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>racle10g</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>资源</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>sqlserver2000</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>oracle9i</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>oracle9i</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除oracle9i资源</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oracle11g</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除Oracle11g资源</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除sqlserver2000资源</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>sqlserver2005</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除sqlserver2005资源</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>sqlserver2008</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除sqlserver2008资源</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>db2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除db2资源</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>bs</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除bs资源</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.23.3</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>yingyong</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>92.168.23.7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>【地址】不能为空</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1296,6 +1566,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1463,11 +1734,11 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1771,8 +2042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1802,64 +2073,64 @@
   <sheetData>
     <row r="1" spans="1:21" ht="18.75">
       <c r="A1" s="1" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="E1" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="F1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>28</v>
-      </c>
       <c r="H1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="J1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="O1" s="12" t="s">
-        <v>36</v>
-      </c>
       <c r="P1" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="U1" s="3" t="s">
         <v>11</v>
@@ -1880,10 +2151,10 @@
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>21</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>22</v>
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
@@ -1893,47 +2164,47 @@
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>105</v>
+        <v>228</v>
       </c>
       <c r="Q2" s="5"/>
       <c r="R2" s="5" t="s">
         <v>20</v>
       </c>
       <c r="S2" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T2" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U2" s="7" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="14.25">
       <c r="A3" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>213</v>
       </c>
       <c r="E3" s="5"/>
-      <c r="F3" s="11" t="s">
-        <v>62</v>
+      <c r="F3" s="5" t="s">
+        <v>198</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>64</v>
+        <v>204</v>
       </c>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
@@ -1942,47 +2213,47 @@
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="P3" s="11" t="s">
-        <v>105</v>
+        <v>74</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>228</v>
       </c>
       <c r="Q3" s="5"/>
       <c r="R3" s="11" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="S3" s="11" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="T3" s="11" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="U3" s="7" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="14.25">
       <c r="A4" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5" t="s">
-        <v>102</v>
+        <v>208</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>82</v>
+        <v>205</v>
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
@@ -1991,47 +2262,47 @@
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
       <c r="O4" s="5" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>89</v>
+        <v>228</v>
       </c>
       <c r="Q4" s="5"/>
       <c r="R4" s="11" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="S4" s="11" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="T4" s="11" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="U4" s="7" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="14.25">
       <c r="A5" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5" t="s">
-        <v>68</v>
+        <v>229</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>83</v>
+        <v>206</v>
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
@@ -2040,44 +2311,44 @@
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
       <c r="O5" s="5" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>89</v>
+        <v>228</v>
       </c>
       <c r="Q5" s="5"/>
       <c r="R5" s="11" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="S5" s="11" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="T5" s="11" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="U5" s="7" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="14.25">
       <c r="A6" s="4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5" t="s">
-        <v>79</v>
+        <v>199</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
@@ -2087,44 +2358,44 @@
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>89</v>
+        <v>228</v>
       </c>
       <c r="Q6" s="5"/>
       <c r="R6" s="11" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="S6" s="11" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="T6" s="11" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="U6" s="7" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="14.25">
       <c r="A7" s="4" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5" t="s">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
@@ -2134,44 +2405,44 @@
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="P7" s="5" t="s">
-        <v>89</v>
+        <v>228</v>
       </c>
       <c r="Q7" s="5"/>
       <c r="R7" s="11" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="S7" s="11" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="T7" s="11" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="U7" s="7" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="14.25">
       <c r="A8" s="4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E8" s="17"/>
-      <c r="F8" s="18" t="s">
-        <v>81</v>
+      <c r="F8" s="5" t="s">
+        <v>201</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H8" s="17"/>
       <c r="I8" s="17"/>
@@ -2181,44 +2452,44 @@
       <c r="M8" s="17"/>
       <c r="N8" s="17"/>
       <c r="O8" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="P8" s="17" t="s">
-        <v>89</v>
+        <v>78</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>228</v>
       </c>
       <c r="Q8" s="17"/>
       <c r="R8" s="11" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="S8" s="11" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="T8" s="11" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="U8" s="7" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="14.25">
       <c r="A9" s="4" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="5" t="s">
-        <v>94</v>
+        <v>202</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H9" s="8"/>
       <c r="I9" s="19"/>
@@ -2228,59 +2499,59 @@
       <c r="M9" s="19"/>
       <c r="N9" s="19"/>
       <c r="O9" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="P9" s="17" t="s">
-        <v>89</v>
+        <v>83</v>
+      </c>
+      <c r="P9" s="5" t="s">
+        <v>228</v>
       </c>
       <c r="Q9" s="10" t="s">
-        <v>213</v>
+        <v>227</v>
       </c>
       <c r="R9" s="8"/>
       <c r="S9" s="8"/>
       <c r="T9" s="8"/>
       <c r="U9" s="7" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="14.25">
       <c r="A10" s="4" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="E10" s="8"/>
-      <c r="F10" s="10" t="s">
-        <v>128</v>
+      <c r="F10" s="5" t="s">
+        <v>203</v>
       </c>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
       <c r="J10" s="10" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="M10" s="8">
         <v>1</v>
       </c>
       <c r="N10" s="20" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="O10" s="8"/>
-      <c r="P10" s="17" t="s">
-        <v>89</v>
+      <c r="P10" s="5" t="s">
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -2297,10 +2568,172 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="22.75" customWidth="1"/>
+    <col min="2" max="2" width="31.5" customWidth="1"/>
+    <col min="3" max="3" width="24.875" customWidth="1"/>
+    <col min="4" max="4" width="36.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="18.75">
+      <c r="A1" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="14.25">
+      <c r="A2" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="14.25">
+      <c r="A3" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="14.25">
+      <c r="A4" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="14.25">
+      <c r="A5" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="14.25">
+      <c r="A6" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="14.25">
+      <c r="A7" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="14.25">
+      <c r="A8" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="14.25">
+      <c r="A9" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="14.25">
+      <c r="A10" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2313,13 +2746,13 @@
   <sheetData>
     <row r="1" spans="1:4" ht="18.75">
       <c r="A1" s="1" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="D1" s="15" t="s">
         <v>2</v>
@@ -2327,13 +2760,13 @@
     </row>
     <row r="2" spans="1:4" ht="14.25">
       <c r="A2" s="4" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>13</v>
@@ -2341,62 +2774,6 @@
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="22.75" customWidth="1"/>
-    <col min="2" max="2" width="31.5" customWidth="1"/>
-    <col min="3" max="3" width="24.875" customWidth="1"/>
-    <col min="4" max="4" width="36.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="18.75">
-      <c r="A1" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="14.25">
-      <c r="A2" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="14.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="13"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2422,10 +2799,10 @@
   <sheetData>
     <row r="1" spans="1:7" ht="18.75">
       <c r="A1" s="1" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>14</v>
@@ -2434,10 +2811,10 @@
         <v>15</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="G1" s="15" t="s">
         <v>2</v>
@@ -2445,17 +2822,17 @@
     </row>
     <row r="2" spans="1:7" ht="14.25">
       <c r="A2" s="4" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
       <c r="F2" s="11"/>
       <c r="G2" s="7" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="14.25">
@@ -2470,107 +2847,107 @@
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
       <c r="G3" s="7" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="14.25">
       <c r="A4" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="7" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="14.25">
       <c r="A5" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="10" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="14.25">
       <c r="A6" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
       <c r="F6" s="10" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="14.25">
       <c r="A7" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="10" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="14.25">
       <c r="A8" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="16" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.25">
       <c r="A9" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -2584,7 +2961,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2607,13 +2984,13 @@
     </row>
     <row r="2" spans="1:3" ht="14.25">
       <c r="A2" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -2627,7 +3004,7 @@
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="S19" sqref="S19"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2652,61 +3029,61 @@
   <sheetData>
     <row r="1" spans="1:20" ht="18.75">
       <c r="A1" s="1" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="D1" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="F1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>28</v>
-      </c>
       <c r="H1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="J1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="O1" s="12" t="s">
-        <v>36</v>
-      </c>
       <c r="P1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="Q1" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="R1" s="2" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="T1" s="3" t="s">
         <v>11</v>
@@ -2714,20 +3091,20 @@
     </row>
     <row r="2" spans="1:20" ht="14.25">
       <c r="A2" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="E2" s="17"/>
-      <c r="F2" s="18" t="s">
-        <v>21</v>
+      <c r="F2" s="17" t="s">
+        <v>207</v>
       </c>
       <c r="G2" s="17"/>
       <c r="H2" s="17"/>
@@ -2741,25 +3118,25 @@
       <c r="P2" s="22"/>
       <c r="Q2" s="22"/>
       <c r="T2" s="8" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="14.25">
       <c r="A3" s="10" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="10" t="s">
-        <v>126</v>
+        <v>209</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
@@ -2773,9 +3150,9 @@
       <c r="P3" s="8"/>
       <c r="Q3" s="8"/>
       <c r="R3" s="8"/>
-      <c r="S3" s="25"/>
+      <c r="S3" s="24"/>
       <c r="T3" s="8" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -2789,8 +3166,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2806,28 +3183,28 @@
   <sheetData>
     <row r="1" spans="1:9" ht="18.75">
       <c r="A1" s="1" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>11</v>
@@ -2835,20 +3212,20 @@
     </row>
     <row r="2" spans="1:9" ht="14.25">
       <c r="A2" s="4" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
@@ -2858,20 +3235,20 @@
     </row>
     <row r="3" spans="1:9" ht="14.25">
       <c r="A3" s="4" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>139</v>
+        <v>230</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="F3" s="23" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
@@ -2881,22 +3258,22 @@
     </row>
     <row r="4" spans="1:9" ht="14.25">
       <c r="A4" s="4" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="F4" s="23" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
@@ -2906,22 +3283,22 @@
     </row>
     <row r="5" spans="1:9" ht="14.25">
       <c r="A5" s="4" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="C5" s="24">
-        <v>1.23456789012345E+32</v>
+        <v>195</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>196</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="F5" s="23" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
@@ -2931,22 +3308,22 @@
     </row>
     <row r="6" spans="1:9" ht="14.25">
       <c r="A6" s="4" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="F6" s="23" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
@@ -2956,22 +3333,22 @@
     </row>
     <row r="7" spans="1:9" ht="14.25">
       <c r="A7" s="9" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
@@ -2981,20 +3358,20 @@
     </row>
     <row r="8" spans="1:9" ht="14.25">
       <c r="A8" s="9" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E8" s="11"/>
       <c r="F8" s="11" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
@@ -3007,23 +3384,23 @@
         <v>6</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="G9" s="11"/>
-      <c r="H9" s="11" t="s">
-        <v>105</v>
+      <c r="H9" s="5" t="s">
+        <v>228</v>
       </c>
       <c r="I9" s="7" t="s">
         <v>7</v>
@@ -3031,25 +3408,25 @@
     </row>
     <row r="10" spans="1:9" ht="14.25">
       <c r="A10" s="4" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="H10" s="11"/>
       <c r="I10" s="7" t="s">
@@ -3058,22 +3435,22 @@
     </row>
     <row r="11" spans="1:9" ht="14.25">
       <c r="A11" s="10" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>160</v>
+        <v>209</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
@@ -3107,7 +3484,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3125,28 +3502,28 @@
   <sheetData>
     <row r="1" spans="1:9" ht="18.75">
       <c r="A1" s="1" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>2</v>
@@ -3154,13 +3531,13 @@
     </row>
     <row r="2" spans="1:9" ht="14.25">
       <c r="A2" s="4" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>4</v>
@@ -3169,16 +3546,16 @@
         <v>10</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -3210,28 +3587,28 @@
   <sheetData>
     <row r="1" spans="1:9" ht="18.75">
       <c r="A1" s="1" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>2</v>
@@ -3239,22 +3616,22 @@
     </row>
     <row r="2" spans="1:9" ht="14.25">
       <c r="A2" s="4" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="G2" s="5">
         <v>1</v>
@@ -3263,7 +3640,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -3294,28 +3671,28 @@
   <sheetData>
     <row r="1" spans="1:9" ht="18.75">
       <c r="A1" s="1" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>2</v>
@@ -3323,31 +3700,31 @@
     </row>
     <row r="2" spans="1:9" ht="14.25">
       <c r="A2" s="4" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -3377,28 +3754,28 @@
   <sheetData>
     <row r="1" spans="1:9" ht="18.75">
       <c r="A1" s="1" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>2</v>
@@ -3406,13 +3783,13 @@
     </row>
     <row r="2" spans="1:9" ht="14.25">
       <c r="A2" s="4" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>4</v>
@@ -3421,16 +3798,16 @@
         <v>10</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="14.25">
@@ -3506,16 +3883,16 @@
   <sheetData>
     <row r="1" spans="1:5" ht="18.75">
       <c r="A1" s="1" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>207</v>
+        <v>189</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>2</v>
@@ -3523,19 +3900,19 @@
     </row>
     <row r="2" spans="1:5" ht="14.25">
       <c r="A2" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -3562,13 +3939,13 @@
   <sheetData>
     <row r="1" spans="1:4" ht="18.75">
       <c r="A1" s="1" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
       <c r="D1" s="15" t="s">
         <v>2</v>
@@ -3576,16 +3953,16 @@
     </row>
     <row r="2" spans="1:4" ht="14.25">
       <c r="A2" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
